--- a/Documentation/素材一覧.xlsx
+++ b/Documentation/素材一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\DigitalPortal\SpaJam\PublicRepository\SFSimulator\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35671F50-7750-4B87-AC62-26A6D5C9D39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706D68E-9015-4AA5-9594-E1217FFBA80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="120" windowWidth="12780" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -452,7 +453,7 @@
   <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -505,8 +506,12 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
@@ -518,106 +523,110 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Documentation/素材一覧.xlsx
+++ b/Documentation/素材一覧.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\devellop\DigitalPortal\SpaJam\PublicRepository\SFSimulator\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F706D68E-9015-4AA5-9594-E1217FFBA80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356671C4-444D-4034-B02F-0AC200D2096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="120" windowWidth="12780" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="120" windowWidth="12780" windowHeight="15390" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画像一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="音楽" sheetId="2" r:id="rId2"/>
+    <sheet name="フォントデータ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +104,83 @@
       <t>ガゾウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maou_se_system49</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maou_se_battle18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音の内容</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ中のBGM音源</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア時効果音</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maou_se_magical25</t>
+  </si>
+  <si>
+    <t>文字フォントの役割</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア情報と、各種文字列の表示に利用</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>カクシュモジレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File</t>
   </si>
 </sst>
 </file>
@@ -452,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -633,4 +712,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51911C10-F5E2-47A3-A200-E4FFE2991576}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13DB660-B2B6-43B9-85A1-9B222D6B4B41}">
+  <dimension ref="A3:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>